--- a/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
+++ b/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Statistic report\Stat reports\Stat reports\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21924966-FDD3-4DB5-BC46-585463B33432}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2E6BA-956D-4682-8DAE-919355C0D597}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="314">
   <si>
     <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
   </si>
@@ -1138,13 +1138,6 @@
     <t>(инициалы, фамилия)</t>
   </si>
   <si>
-    <t>Стешиц Татьяна Леонидовна steshict5@mail.ru
-8174261322</t>
-  </si>
-  <si>
-    <t>07.03.2025</t>
-  </si>
-  <si>
     <t>(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
@@ -1153,7 +1146,7 @@
 статистической отчетности)</t>
   </si>
   <si>
-    <t xml:space="preserve">Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за </t>
+    <t>Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
   </si>
 </sst>
 </file>
@@ -1614,20 +1607,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,18 +1670,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1767,20 +1760,20 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,40 +2132,40 @@
       <c r="M4" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2188,7 +2181,7 @@
       <c r="M9" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6"/>
@@ -2197,66 +2190,66 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2264,7 +2257,7 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
@@ -2281,7 +2274,7 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6"/>
@@ -2298,7 +2291,7 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6"/>
@@ -2315,7 +2308,7 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6"/>
@@ -2332,18 +2325,18 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="6"/>
@@ -2374,18 +2367,18 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="6"/>
@@ -2396,6 +2389,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="A12:G14"/>
+    <mergeCell ref="H12:J14"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:M7"/>
@@ -2403,24 +2414,6 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A12:G14"/>
-    <mergeCell ref="H12:J14"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2448,30 +2441,30 @@
       <c r="A1" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2695,33 +2688,33 @@
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -2877,39 +2870,39 @@
       <c r="A1" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -3237,33 +3230,33 @@
       <c r="A1" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -3423,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D9:D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,29 +3429,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3561,97 +3554,88 @@
       <c r="D14" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="F17" s="66" t="s">
+      <c r="D17" s="16"/>
+      <c r="F17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="I17" s="66" t="s">
+      <c r="G17" s="16"/>
+      <c r="I17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="C19" s="67" t="s">
+      <c r="A19" s="16"/>
+      <c r="C19" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="67" t="s">
+      <c r="D19" s="9"/>
+      <c r="F19" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="I19" s="67" t="s">
+      <c r="G19" s="9"/>
+      <c r="I19" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E23" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:D18"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="A23:A24"/>
@@ -3661,6 +3645,11 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3689,33 +3678,33 @@
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -3825,30 +3814,30 @@
       <c r="A1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4006,33 +3995,33 @@
       <c r="A1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -4411,15 +4400,15 @@
       <c r="A1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -4428,7 +4417,7 @@
       <c r="B5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4520,72 +4509,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="38" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -4603,19 +4592,19 @@
       <c r="E7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -4711,13 +4700,13 @@
       <c r="O9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4851,6 +4840,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:P5"/>
@@ -4867,11 +4861,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -4900,33 +4889,33 @@
       <c r="A1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -5061,39 +5050,39 @@
       <c r="A1" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -5340,30 +5329,30 @@
       <c r="A1" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">

--- a/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
+++ b/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2E6BA-956D-4682-8DAE-919355C0D597}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -28,32 +22,32 @@
     <sheet name="Раздел 12" sheetId="13" r:id="rId13"/>
     <sheet name="Раздел 13" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="314">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>1-ис (инвестиции)</t>
-  </si>
-  <si>
-    <t>Юридические лица (кроме перечисленных в Указаниях по
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-ис (инвестиции)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юридические лица (кроме перечисленных в Указаниях по
 заполнению настоящей формы), обособленные подразделения
 юридических лиц, осуществляющие инвестиционную деятельность
 по вложению инвестиций в основной капитал.
@@ -66,106 +60,106 @@
 управление области.</t>
   </si>
   <si>
-    <t>27 февраля</t>
-  </si>
-  <si>
-    <t>Код формы
+    <t xml:space="preserve">27 февраля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0628004</t>
-  </si>
-  <si>
-    <t>Годовая</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0628004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Годовая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 149
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 149
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
-  </si>
-  <si>
-    <t>Электронный адрес: su149@str3.by</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>Территория нахождения объекта инвестиционной деятельности</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>012774946009</t>
-  </si>
-  <si>
-    <t>600142668</t>
-  </si>
-  <si>
-    <t>Солигорский район</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Мощность объектов:</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>реконструкции,
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: su149@str3.by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Территория нахождения объекта инвестиционной деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600142668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солигорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность объектов:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реконструкции,
 модернизации</t>
   </si>
   <si>
-    <t>возведения</t>
-  </si>
-  <si>
-    <t>Из них в результате</t>
-  </si>
-  <si>
-    <t>Введено
+    <t xml:space="preserve">возведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из них в результате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено
 в
 эксплуатацию</t>
   </si>
   <si>
-    <t>Ед.измерения</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>Ввод в эксплуатацию объектов строительства</t>
+    <t xml:space="preserve">Ед.измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод в эксплуатацию объектов строительства</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1  </t>
@@ -174,353 +168,353 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>других зданий</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>административных</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>здравоохранения</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>учебных</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>коммерческих</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>сельскохозяйственных</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>в том числе: промышленных</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Введено в эксплуатацию новых нежилых зданий (сумма строк с 102 по 106, 110 и
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">других зданий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">административных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">здравоохранения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">учебных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коммерческих</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сельскохозяйственных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: промышленных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено в эксплуатацию новых нежилых зданий (сумма строк с 102 по 106, 110 и
 111)</t>
   </si>
   <si>
-    <t>Количество,
+    <t xml:space="preserve">Количество,
 единиц</t>
   </si>
   <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>Ввод в эксплуатацию новых нежилых зданий</t>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод в эксплуатацию новых нежилых зданий</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 2  </t>
   </si>
   <si>
-    <t>Общая
+    <t xml:space="preserve">Общая
 площадь,
 квадратных
 метров</t>
   </si>
   <si>
-    <t>Фактическая
+    <t xml:space="preserve">Фактическая
 стоимость,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>техника вычислительная и организационная</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>транспортные средства</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>финансовый лизинг</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Из строки 222: работы по монтажу оборудования</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>автомобильные дороги необщего пользования</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>автомобильные дороги общего пользования</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>эксплуатационное бурение на нефть и газ</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>глубокое разведочное бурение на нефть и газ</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>закладка садов и других многолетних насаждений</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>мелиорация земель</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>из них сооружения и передаточные устройства</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Из строки 202: здания (кроме жилых), сооружения и передаточные устройства</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>разведка и оценка запасов полезных ископаемых</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>оригиналы произведений развлекательного жанра, литературы или искусства</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>научные исследования и разработки</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>из них: программное обеспечение и базы данных</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>объекты интеллектуальной собственности</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>из них для строительства будущих лет</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>из них проектно-изыскательские работы</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>прочие работы и затраты</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>из них импортные</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>машины, оборудование, транспортные средства, инструмент, инвентарь</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>в том числе: строительно-монтажные работы</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Использовано инвестиций в основной капитал - всего (сумма строк 220, 222, 225,
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">техника вычислительная и организационная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">транспортные средства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">финансовый лизинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 222: работы по монтажу оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">автомобильные дороги необщего пользования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">автомобильные дороги общего пользования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эксплуатационное бурение на нефть и газ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">глубокое разведочное бурение на нефть и газ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">закладка садов и других многолетних насаждений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мелиорация земель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них сооружения и передаточные устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 202: здания (кроме жилых), сооружения и передаточные устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разведка и оценка запасов полезных ископаемых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оригиналы произведений развлекательного жанра, литературы или искусства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">научные исследования и разработки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: программное обеспечение и базы данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объекты интеллектуальной собственности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них для строительства будущих лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них проектно-изыскательские работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочие работы и затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них импортные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">машины, оборудование, транспортные средства, инструмент, инвентарь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: строительно-монтажные работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовано инвестиций в основной капитал - всего (сумма строк 220, 222, 225,
 244)</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>из
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из
 них
 модернизации</t>
   </si>
   <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>Основные средства и инвестиции в основной капитал</t>
-  </si>
-  <si>
-    <t>Таблица 3 Технологическая и воспроизводственная структура инвестиций в основной капитал</t>
-  </si>
-  <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>затраты по формированию основного стада</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>Из строки 202: уплаченные банку проценты по кредитам (займам)</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>Сумма налога на добавленную стоимость за использованные объемы инвестиций в
+    <t xml:space="preserve">Всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основные средства и инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 3 Технологическая и воспроизводственная структура инвестиций в основной капитал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затраты по формированию основного стада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 202: уплаченные банку проценты по кредитам (займам)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма налога на добавленную стоимость за использованные объемы инвестиций в
 основной капитал</t>
   </si>
   <si>
-    <t>Всего,
+    <t xml:space="preserve">Всего,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>Таблица 4 Справочная информация</t>
-  </si>
-  <si>
-    <t>41200</t>
-  </si>
-  <si>
-    <t>Общее строительство зданий</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>в том числе по видам экономической деятельности:</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>льготных
+    <t xml:space="preserve">Таблица 4 Справочная информация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее строительство зданий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по видам экономической деятельности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">льготных
 кредитов</t>
   </si>
   <si>
-    <t>прочих
+    <t xml:space="preserve">прочих
 источников</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 населения</t>
   </si>
   <si>
-    <t>из них</t>
-  </si>
-  <si>
-    <t>кредитов
+    <t xml:space="preserve">из них</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов
 (займов)
 банков</t>
   </si>
   <si>
-    <t>иностранных
+    <t xml:space="preserve">иностранных
 инвестиций
 (без
 кредитов
@@ -529,22 +523,22 @@
 банков)</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 внебюджетных фондов</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 местных
 бюджетов</t>
   </si>
   <si>
-    <t>заемных
+    <t xml:space="preserve">заемных
 средств
 других
 организаций</t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 них
 за
 счет
@@ -554,28 +548,28 @@
 распределенной</t>
   </si>
   <si>
-    <t>собственных
+    <t xml:space="preserve">собственных
 средств
 организаций</t>
   </si>
   <si>
-    <t>В том числе за счет</t>
-  </si>
-  <si>
-    <t>Наименование вида экономической деятельности по ОКРБ 005-2011</t>
-  </si>
-  <si>
-    <t>Таблица 5 Ввод в эксплуатацию основных средств и использование инвестиций в основной капитал по источникам финансирования и видам экономической деятельности</t>
-  </si>
-  <si>
-    <t>Введено
+    <t xml:space="preserve">В том числе за счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование вида экономической деятельности по ОКРБ 005-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 Ввод в эксплуатацию основных средств и использование инвестиций в основной капитал по источникам финансирования и видам экономической деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено
 в
 эксплуатацию
 основных
 средств</t>
   </si>
   <si>
-    <t>Использовано
+    <t xml:space="preserve">Использовано
 инвестиций
 в
 основной
@@ -587,25 +581,25 @@
 1)</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 республиканского
 бюджета</t>
   </si>
   <si>
-    <t>кредитов
+    <t xml:space="preserve">кредитов
 (займов)
 иностранных
 банков</t>
   </si>
   <si>
-    <t>кредитов
+    <t xml:space="preserve">кредитов
 по
 иностранным
 кредитным
 линиям</t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 графы
 6
 -
@@ -615,16 +609,16 @@
 займов</t>
   </si>
   <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>Таблица 6 Технологическая структура инвестиций в основной капитал по видам экономической деятельности</t>
-  </si>
-  <si>
-    <t>Строительно-монтажные
+    <t xml:space="preserve">351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 6 Технологическая структура инвестиций в основной капитал по видам экономической деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительно-монтажные
 работы
 (из
 строки
@@ -633,7 +627,7 @@
 1)</t>
   </si>
   <si>
-    <t>Машины,
+    <t xml:space="preserve">Машины,
 оборудование,
 транспортные
 средства,
@@ -646,7 +640,7 @@
 1)</t>
   </si>
   <si>
-    <t>импортные
+    <t xml:space="preserve">импортные
 (из
 строки
 223
@@ -654,7 +648,7 @@
 1)</t>
   </si>
   <si>
-    <t>работы
+    <t xml:space="preserve">работы
 по
 монтажу
 оборудования
@@ -664,71 +658,71 @@
 1)</t>
   </si>
   <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>прочую деятельность в области охраны окружающей среды</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>научную деятельность и разработки в области охраны окружающей среды</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>защиту от ионизирующего излучения и радиоактивного загрязнения</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>сохранение биологического и ландшафтного разнообразия</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>снижение шумового и вибрационного воздействия</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>охрану и экологическую реабилитацию земель, поверхностных и подземных вод</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>обращение с отходами</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>обращение со сточными водами</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>в том числе на: охрану атмосферного воздуха и предотвращение изменения климата</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>иных
+    <t xml:space="preserve">409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочую деятельность в области охраны окружающей среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">научную деятельность и разработки в области охраны окружающей среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">защиту от ионизирующего излучения и радиоактивного загрязнения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сохранение биологического и ландшафтного разнообразия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">снижение шумового и вибрационного воздействия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">охрану и экологическую реабилитацию земель, поверхностных и подземных вод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обращение с отходами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обращение со сточными водами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе на: охрану атмосферного воздуха и предотвращение изменения климата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иных
 источников</t>
   </si>
   <si>
-    <t>Таблица 7 Инвестиции в основной капитал, направленные на охрану окружающей среды</t>
-  </si>
-  <si>
-    <t>Использовано
+    <t xml:space="preserve">Таблица 7 Инвестиции в основной капитал, направленные на охрану окружающей среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовано
 инвестиций
 в
 основной
@@ -743,10 +737,10 @@
 по 6)</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Из
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из
 них
 в
 сельских
@@ -754,97 +748,97 @@
 пунктах</t>
   </si>
   <si>
-    <t>Раздел 4</t>
-  </si>
-  <si>
-    <t>Строительство объектов жилищно-гражданского назначения</t>
-  </si>
-  <si>
-    <t>Таблица 8 Строительство объектов социально-культурного назначения</t>
-  </si>
-  <si>
-    <t>прочих источников</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>средств населения</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>из них льготных кредитов</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>кредитов (займов) банков</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>иностранных инвестиций (без кредитов (займов) иностранных банков)</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>средств внебюджетных фондов</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>средств местных бюджетов</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>из них средств семейного капитала</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>средств республиканского бюджета</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>заемных средств других организаций</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>Из строки 502 - за счет: собственных средств организаций</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>Из строки 502: в малых городских поселениях</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>из них общежития</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>Жилые дома и общежития (сумма строк с 510 по 516, 518, 519)</t>
-  </si>
-  <si>
-    <t>Использовано
+    <t xml:space="preserve">Раздел 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство объектов жилищно-гражданского назначения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 8 Строительство объектов социально-культурного назначения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочих источников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них льготных кредитов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов (займов) банков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иностранных инвестиций (без кредитов (займов) иностранных банков)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств внебюджетных фондов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств местных бюджетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них средств семейного капитала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств республиканского бюджета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заемных средств других организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 502 - за счет: собственных средств организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 502: в малых городских поселениях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них общежития</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома и общежития (сумма строк с 510 по 516, 518, 519)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовано
 инвестиций
 в
 фактических
@@ -853,7 +847,7 @@
 рублей</t>
   </si>
   <si>
-    <t>Введено
+    <t xml:space="preserve">Введено
 в
 эксплуатацию
 общей
@@ -862,10 +856,10 @@
 метров</t>
   </si>
   <si>
-    <t>Таблица 9 Строительство жилых домов и общежитий по источникам финансирования</t>
-  </si>
-  <si>
-    <t>Из
+    <t xml:space="preserve">Таблица 9 Строительство жилых домов и общежитий по источникам финансирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из
 них
 в
 сельских
@@ -875,139 +869,139 @@
 метров</t>
   </si>
   <si>
-    <t>четырехкомнатные и более</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>трехкомнатные</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>двухкомнатные</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>в том числе: однокомнатные</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>Квартиры (сумма строк с 526 по 529)</t>
-  </si>
-  <si>
-    <t>количество,
+    <t xml:space="preserve">четырехкомнатные и более</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трехкомнатные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">двухкомнатные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: однокомнатные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартиры (сумма строк с 526 по 529)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество,
 единиц</t>
   </si>
   <si>
-    <t>Из них в сельских
+    <t xml:space="preserve">Из них в сельских
 населенных пунктах</t>
   </si>
   <si>
-    <t>Введено в
+    <t xml:space="preserve">Введено в
 эксплуатацию</t>
   </si>
   <si>
-    <t>Таблица 10 Ввод в эксплуатацию квартир в жилых домах</t>
-  </si>
-  <si>
-    <t>общая
+    <t xml:space="preserve">Таблица 10 Ввод в эксплуатацию квартир в жилых домах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">общая
 площадь,
 квадратных
 метров</t>
   </si>
   <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>многоквартирные жилые дома</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>Из строки 1010: одноквартирные жилые дома</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>Общежития</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>из других стеновых материалов</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>из ячеистого бетона</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>из монолитного бетона и монолитного железобетона</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>деревянные</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>каркасно-блочные</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>крупноблочные</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>объемно-блочные</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>каркасно-панельные</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>крупнопанельные</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>в том числе: кирпичные</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Жилые дома (без общежитий) - всего (сумма строк с 1011 по 1020)</t>
-  </si>
-  <si>
-    <t>фактическая
+    <t xml:space="preserve">1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">многоквартирные жилые дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 1010: одноквартирные жилые дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общежития</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из других стеновых материалов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из ячеистого бетона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из монолитного бетона и монолитного железобетона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">деревянные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каркасно-блочные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крупноблочные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объемно-блочные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каркасно-панельные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крупнопанельные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: кирпичные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома (без общежитий) - всего (сумма строк с 1011 по 1020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фактическая
 стоимость
 для
 заказчика,
@@ -1015,144 +1009,145 @@
 рублей</t>
   </si>
   <si>
-    <t>введено в
+    <t xml:space="preserve">введено в
 эксплуатацию</t>
   </si>
   <si>
-    <t>Из них в сельских населенных
+    <t xml:space="preserve">Из них в сельских населенных
 пунктах</t>
   </si>
   <si>
-    <t>Таблица 11 Сведения о стоимости строительства жилых домов</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>семнадцатиэтажные и более</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>десяти-шестнадцатиэтажные</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>шести-девятиэтажные</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>пятиэтажные</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>трех-четырехэтажные</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>двухэтажные</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>Из суммы строк 1010 и 1025: одноэтажные</t>
-  </si>
-  <si>
-    <t>количество
+    <t xml:space="preserve">Таблица 11 Сведения о стоимости строительства жилых домов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">семнадцатиэтажные и более</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">десяти-шестнадцатиэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шести-девятиэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пятиэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трех-четырехэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">двухэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из суммы строк 1010 и 1025: одноэтажные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество
 домов,
 единиц</t>
   </si>
   <si>
-    <t>Таблица 12 Этажность жилых домов и общежитий</t>
-  </si>
-  <si>
-    <t>единиц</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>количество квартир (из строки 525)</t>
-  </si>
-  <si>
-    <t>квадратных
+    <t xml:space="preserve">Таблица 12 Этажность жилых домов и общежитий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">единиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество квартир (из строки 525)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">квадратных
 метров</t>
   </si>
   <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>Жилые дома: общая площадь (из строки 502)</t>
-  </si>
-  <si>
-    <t>тысяч
+    <t xml:space="preserve">1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома: общая площадь (из строки 502)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч
 рублей</t>
   </si>
   <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>Из строки 202 - использовано инвестиций в основной капитал - всего (сумма строк
+    <t xml:space="preserve">1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 202 - использовано инвестиций в основной капитал - всего (сумма строк
 с 1051 по 1053)</t>
   </si>
   <si>
-    <t>Раздел 5</t>
+    <t xml:space="preserve">Раздел 5</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 13  </t>
   </si>
   <si>
-    <t>Инвестиции в основной капитал и ввод в эксплуатацию жилых домов за счет средств, направленных
+    <t xml:space="preserve">Инвестиции в основной капитал и ввод в эксплуатацию жилых домов за счет средств, направленных
 на преодоление последствий катастрофы на Чернобыльской АЭС</t>
   </si>
   <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
+    <t xml:space="preserve">Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1782,11 +1777,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2088,8 +2083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
@@ -2421,8 +2416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="C9:E22"/>
@@ -2667,8 +2662,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="C10:F14"/>
@@ -2847,8 +2842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H24" sqref="C11:H24"/>
@@ -3209,8 +3204,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="C10:F16"/>
@@ -3413,8 +3408,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A22"/>
@@ -3657,8 +3652,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:F10"/>
@@ -3794,8 +3789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:E16"/>
@@ -3974,8 +3969,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F33" sqref="C10:F33"/>
@@ -4382,8 +4377,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C9:C11"/>
@@ -4480,8 +4475,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:R13"/>
@@ -4868,8 +4863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="C10:F12"/>
@@ -5027,8 +5022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -5309,8 +5304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
